--- a/ExcelLevels/tileTemplate.xlsx
+++ b/ExcelLevels/tileTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neumont\RichAnimation\RichAnimationFinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neumont\RichAnimation\RichAnimationFinal\ExcelLevels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TileGraphics" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Graphic Enums</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>bearTrap</t>
+  </si>
+  <si>
+    <t>jump</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1546,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -1623,6 +1626,9 @@
       </c>
       <c r="C4" t="s">
         <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>

--- a/ExcelLevels/tileTemplate.xlsx
+++ b/ExcelLevels/tileTemplate.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="contentEnums">BoardEnums!$B$2:$B$7</definedName>
     <definedName name="entityEnums">BoardEnums!$E$2:$E$5</definedName>
-    <definedName name="graphicEnums">BoardEnums!$A$2:$A$10</definedName>
+    <definedName name="graphicEnums">BoardEnums!$A$2:$A$28</definedName>
     <definedName name="triggerStateEnums">BoardEnums!$C$2:$C$7</definedName>
     <definedName name="triggerTypeEnums">BoardEnums!$D$2:$D$4</definedName>
   </definedNames>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Graphic Enums</t>
   </si>
@@ -117,6 +117,51 @@
   </si>
   <si>
     <t>jump</t>
+  </si>
+  <si>
+    <t>cave_rock </t>
+  </si>
+  <si>
+    <t>cave_rockLight </t>
+  </si>
+  <si>
+    <t>cave_rockDark </t>
+  </si>
+  <si>
+    <t>cave_rockMossy </t>
+  </si>
+  <si>
+    <t>cave_rockWatery </t>
+  </si>
+  <si>
+    <t>cave_rockWaterPuddle </t>
+  </si>
+  <si>
+    <t>cave_rockBloody </t>
+  </si>
+  <si>
+    <t>cave_rockBloodPuddle </t>
+  </si>
+  <si>
+    <t>cave_rockLava </t>
+  </si>
+  <si>
+    <t>cave_sandstone </t>
+  </si>
+  <si>
+    <t>cave_sandstoneMossy </t>
+  </si>
+  <si>
+    <t>cave_sandstoneWatery </t>
+  </si>
+  <si>
+    <t>cave_lava</t>
+  </si>
+  <si>
+    <t>cave_rockHole </t>
+  </si>
+  <si>
+    <t>cave_rockBoulder</t>
   </si>
 </sst>
 </file>
@@ -1550,12 +1595,12 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -1672,38 +1717,103 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="23" spans="6:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F28" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F30" s="2"/>
     </row>
   </sheetData>

--- a/ExcelLevels/tileTemplate.xlsx
+++ b/ExcelLevels/tileTemplate.xlsx
@@ -20,11 +20,11 @@
     <sheet name="BoardEnums" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="contentEnums">BoardEnums!$B$2:$B$7</definedName>
-    <definedName name="entityEnums">BoardEnums!$E$2:$E$5</definedName>
+    <definedName name="contentEnums">BoardEnums!$B$2:$B$12</definedName>
+    <definedName name="entityEnums">BoardEnums!$E$2:$E$19</definedName>
     <definedName name="graphicEnums">BoardEnums!$A$2:$A$28</definedName>
-    <definedName name="triggerStateEnums">BoardEnums!$C$2:$C$7</definedName>
-    <definedName name="triggerTypeEnums">BoardEnums!$D$2:$D$4</definedName>
+    <definedName name="triggerStateEnums">BoardEnums!$C$2:$C$8</definedName>
+    <definedName name="triggerTypeEnums">BoardEnums!$D$2:$D$10</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>Graphic Enums</t>
   </si>
@@ -101,9 +101,6 @@
     <t>player</t>
   </si>
   <si>
-    <t>wisp</t>
-  </si>
-  <si>
     <t>bones</t>
   </si>
   <si>
@@ -162,6 +159,84 @@
   </si>
   <si>
     <t>cave_rockBoulder</t>
+  </si>
+  <si>
+    <t>sword1</t>
+  </si>
+  <si>
+    <t>sword2</t>
+  </si>
+  <si>
+    <t>sword3</t>
+  </si>
+  <si>
+    <t>sword4</t>
+  </si>
+  <si>
+    <t>sword5</t>
+  </si>
+  <si>
+    <t>hiddenToPermanent</t>
+  </si>
+  <si>
+    <t>cursedBearTrap</t>
+  </si>
+  <si>
+    <t>telporter</t>
+  </si>
+  <si>
+    <t>slowMovement</t>
+  </si>
+  <si>
+    <t>bomb</t>
+  </si>
+  <si>
+    <t>spikes</t>
+  </si>
+  <si>
+    <t>skeletonGray</t>
+  </si>
+  <si>
+    <t>skeletonBlueRed </t>
+  </si>
+  <si>
+    <t>skeletonDark </t>
+  </si>
+  <si>
+    <t>skeletonGold </t>
+  </si>
+  <si>
+    <t>wispBlackBlue </t>
+  </si>
+  <si>
+    <t>wispBlackGreen </t>
+  </si>
+  <si>
+    <t>wispBlackPurple </t>
+  </si>
+  <si>
+    <t>wispBlackRed </t>
+  </si>
+  <si>
+    <t>wispWhiteblue </t>
+  </si>
+  <si>
+    <t>wipsWhiteGreen </t>
+  </si>
+  <si>
+    <t>wispWhitePurple </t>
+  </si>
+  <si>
+    <t>wispWhiteRed </t>
+  </si>
+  <si>
+    <t>crawlerTan</t>
+  </si>
+  <si>
+    <t>easterEggBoss</t>
+  </si>
+  <si>
+    <t>finalBoss</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1670,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,7 +1679,7 @@
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" customWidth="1"/>
@@ -1619,10 +1694,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
@@ -1633,16 +1708,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1650,16 +1725,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1667,16 +1742,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1684,10 +1759,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1695,87 +1776,157 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1783,17 +1934,17 @@
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1801,7 +1952,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -1817,7 +1968,7 @@
       <c r="F30" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="B2:B3">
+  <sortState ref="B4:B5">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
